--- a/Quicksort In Place Parallel/ThresholdResults.xlsx
+++ b/Quicksort In Place Parallel/ThresholdResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\source\repos\dining_philosophers\Quicksort In Place Parallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B34EAEE-408B-4F1F-88FD-05682260FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2432E-9578-4E8D-8B10-E93C3B0ADD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7AABC87E-6EC1-48E3-8111-BBF7026F40AB}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7AABC87E-6EC1-48E3-8111-BBF7026F40AB}"/>
   </bookViews>
   <sheets>
     <sheet name="ThresholdResults" sheetId="1" r:id="rId1"/>
@@ -1679,1003 +1679,1003 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="333"/>
                 <c:pt idx="0">
-                  <c:v>475</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>353</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>298</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>311</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>356</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>337</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>349</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>331</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>328</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>379</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>319</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>301</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>305</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>301</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>311</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>306</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>319</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>310</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>334</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>334</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>331</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>355</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>361</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="69">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>351</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>342</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>364</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>356</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>365</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>344</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>347</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>360</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>370</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>349</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>353</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>356</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>350</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>357</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>348</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>375</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>375</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>373</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>366</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>372</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>367</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>377</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>370</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>372</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>377</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>373</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>372</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>369</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>408</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>367</c:v>
+                  <c:v>406</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>369</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>376</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>381</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>369</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>377</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>362</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>372</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>366</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>360</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>366</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>373</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>378</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>374</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>379</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>377</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>365</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>369</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>399</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>398</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>393</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>390</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>394</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>399</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>385</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>398</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="131">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>431</c:v>
                 </c:pt>
-                <c:pt idx="132">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>408</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>391</c:v>
-                </c:pt>
                 <c:pt idx="158">
-                  <c:v>409</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>396</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>384</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>388</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>396</c:v>
+                  <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>398</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>389</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>464</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="166">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>473</c:v>
-                </c:pt>
                 <c:pt idx="168">
-                  <c:v>527</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="169">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="189">
                   <c:v>495</c:v>
                 </c:pt>
-                <c:pt idx="170">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="190">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>481</c:v>
                 </c:pt>
-                <c:pt idx="174">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>467</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="196">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="197">
                   <c:v>482</c:v>
                 </c:pt>
-                <c:pt idx="187">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>447</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>468</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>454</c:v>
-                </c:pt>
                 <c:pt idx="198">
-                  <c:v>470</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>467</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>450</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>473</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>447</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>472</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>472</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>454</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="206">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="217">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="207">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>462</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>458</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>463</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>522</c:v>
-                </c:pt>
                 <c:pt idx="218">
-                  <c:v>528</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>539</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>517</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>532</c:v>
+                  <c:v>548</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>519</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>521</c:v>
+                  <c:v>558</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>533</c:v>
+                  <c:v>548</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>529</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>527</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>522</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="228">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="239">
                   <c:v>556</c:v>
                 </c:pt>
-                <c:pt idx="229">
+                <c:pt idx="240">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="244">
                   <c:v>543</c:v>
                 </c:pt>
-                <c:pt idx="230">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>526</c:v>
-                </c:pt>
                 <c:pt idx="245">
-                  <c:v>525</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>513</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>521</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>514</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>528</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>547</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>533</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>528</c:v>
+                  <c:v>620</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>526</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>515</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>532</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>524</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>541</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>536</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>529</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>524</c:v>
+                  <c:v>577</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>535</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>527</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>547</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>516</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>526</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>522</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>512</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>531</c:v>
+                  <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>531</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>523</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>533</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>538</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>517</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>522</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>531</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>543</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>525</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>520</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>511</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>525</c:v>
+                  <c:v>606</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>553</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>524</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>527</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>523</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>536</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>529</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>534</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>533</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>516</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>533</c:v>
+                  <c:v>562</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>525</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>548</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>539</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>530</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>503</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>526</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>531</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>512</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>530</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>523</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>534</c:v>
+                  <c:v>578</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>526</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>523</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>524</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>518</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>526</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>557</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>530</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>533</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>527</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>555</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>541</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>531</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>530</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>521</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>535</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>516</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>509</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>530</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>526</c:v>
+                  <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>519</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>525</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>547</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>518</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>518</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>519</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>526</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>537</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>521</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>523</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>529</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>524</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3902,7 +3902,7 @@
   <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,7 +3920,7 @@
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>475</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3928,7 @@
         <v>20000</v>
       </c>
       <c r="B3">
-        <v>359</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>30000</v>
       </c>
       <c r="B4">
-        <v>368</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3944,7 @@
         <v>40000</v>
       </c>
       <c r="B5">
-        <v>389</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>50000</v>
       </c>
       <c r="B6">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3960,7 @@
         <v>60000</v>
       </c>
       <c r="B7">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>70000</v>
       </c>
       <c r="B8">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
         <v>80000</v>
       </c>
       <c r="B9">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +3984,7 @@
         <v>90000</v>
       </c>
       <c r="B10">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3992,7 +3992,7 @@
         <v>100000</v>
       </c>
       <c r="B11">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>110000</v>
       </c>
       <c r="B12">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4008,7 +4008,7 @@
         <v>120000</v>
       </c>
       <c r="B13">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
         <v>130000</v>
       </c>
       <c r="B14">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +4024,7 @@
         <v>140000</v>
       </c>
       <c r="B15">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4032,7 +4032,7 @@
         <v>150000</v>
       </c>
       <c r="B16">
-        <v>300</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,7 @@
         <v>160000</v>
       </c>
       <c r="B17">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>170000</v>
       </c>
       <c r="B18">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +4056,7 @@
         <v>180000</v>
       </c>
       <c r="B19">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
         <v>190000</v>
       </c>
       <c r="B20">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>200000</v>
       </c>
       <c r="B21">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
         <v>210000</v>
       </c>
       <c r="B22">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>220000</v>
       </c>
       <c r="B23">
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>230000</v>
       </c>
       <c r="B24">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>240000</v>
       </c>
       <c r="B25">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>250000</v>
       </c>
       <c r="B26">
-        <v>301</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>260000</v>
       </c>
       <c r="B27">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>270000</v>
       </c>
       <c r="B28">
-        <v>308</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +4136,7 @@
         <v>280000</v>
       </c>
       <c r="B29">
-        <v>298</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4144,7 @@
         <v>290000</v>
       </c>
       <c r="B30">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>300000</v>
       </c>
       <c r="B31">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>320000</v>
       </c>
       <c r="B33">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4176,7 +4176,7 @@
         <v>330000</v>
       </c>
       <c r="B34">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4184,7 +4184,7 @@
         <v>340000</v>
       </c>
       <c r="B35">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>350000</v>
       </c>
       <c r="B36">
-        <v>331</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>360000</v>
       </c>
       <c r="B37">
-        <v>328</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>370000</v>
       </c>
       <c r="B38">
-        <v>379</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -4224,7 +4224,7 @@
         <v>390000</v>
       </c>
       <c r="B40">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>400000</v>
       </c>
       <c r="B41">
-        <v>301</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>410000</v>
       </c>
       <c r="B42">
-        <v>305</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>420000</v>
       </c>
       <c r="B43">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>430000</v>
       </c>
       <c r="B44">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,7 +4264,7 @@
         <v>440000</v>
       </c>
       <c r="B45">
-        <v>306</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>450000</v>
       </c>
       <c r="B46">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -4280,7 +4280,7 @@
         <v>460000</v>
       </c>
       <c r="B47">
-        <v>310</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>470000</v>
       </c>
       <c r="B48">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -4296,7 +4296,7 @@
         <v>480000</v>
       </c>
       <c r="B49">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,7 +4304,7 @@
         <v>490000</v>
       </c>
       <c r="B50">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>500000</v>
       </c>
       <c r="B51">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>510000</v>
       </c>
       <c r="B52">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,7 +4328,7 @@
         <v>520000</v>
       </c>
       <c r="B53">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
         <v>530000</v>
       </c>
       <c r="B54">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4344,7 @@
         <v>540000</v>
       </c>
       <c r="B55">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>550000</v>
       </c>
       <c r="B56">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4360,7 +4360,7 @@
         <v>560000</v>
       </c>
       <c r="B57">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
         <v>570000</v>
       </c>
       <c r="B58">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -4376,7 +4376,7 @@
         <v>580000</v>
       </c>
       <c r="B59">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -4384,7 +4384,7 @@
         <v>590000</v>
       </c>
       <c r="B60">
-        <v>311</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
         <v>600000</v>
       </c>
       <c r="B61">
-        <v>329</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,7 +4400,7 @@
         <v>610000</v>
       </c>
       <c r="B62">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4408,7 +4408,7 @@
         <v>620000</v>
       </c>
       <c r="B63">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4416,7 @@
         <v>630000</v>
       </c>
       <c r="B64">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4424,7 +4424,7 @@
         <v>640000</v>
       </c>
       <c r="B65">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
         <v>650000</v>
       </c>
       <c r="B66">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v>660000</v>
       </c>
       <c r="B67">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4448,7 +4448,7 @@
         <v>670000</v>
       </c>
       <c r="B68">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>680000</v>
       </c>
       <c r="B69">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
         <v>690000</v>
       </c>
       <c r="B70">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>700000</v>
       </c>
       <c r="B71">
-        <v>330</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -4480,7 +4480,7 @@
         <v>710000</v>
       </c>
       <c r="B72">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4488,7 @@
         <v>720000</v>
       </c>
       <c r="B73">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>730000</v>
       </c>
       <c r="B74">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
         <v>740000</v>
       </c>
       <c r="B75">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4512,7 +4512,7 @@
         <v>750000</v>
       </c>
       <c r="B76">
-        <v>365</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,7 @@
         <v>760000</v>
       </c>
       <c r="B77">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>770000</v>
       </c>
       <c r="B78">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -4536,7 +4536,7 @@
         <v>780000</v>
       </c>
       <c r="B79">
-        <v>342</v>
+        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>790000</v>
       </c>
       <c r="B80">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4552,7 +4552,7 @@
         <v>800000</v>
       </c>
       <c r="B81">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4560,7 @@
         <v>810000</v>
       </c>
       <c r="B82">
-        <v>365</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4568,7 @@
         <v>820000</v>
       </c>
       <c r="B83">
-        <v>344</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4576,7 @@
         <v>830000</v>
       </c>
       <c r="B84">
-        <v>347</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4584,7 @@
         <v>840000</v>
       </c>
       <c r="B85">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4592,7 @@
         <v>850000</v>
       </c>
       <c r="B86">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +4600,7 @@
         <v>860000</v>
       </c>
       <c r="B87">
-        <v>349</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4608,7 @@
         <v>870000</v>
       </c>
       <c r="B88">
-        <v>353</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
         <v>880000</v>
       </c>
       <c r="B89">
-        <v>356</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4624,7 +4624,7 @@
         <v>890000</v>
       </c>
       <c r="B90">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
         <v>900000</v>
       </c>
       <c r="B91">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
         <v>910000</v>
       </c>
       <c r="B92">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -4648,7 +4648,7 @@
         <v>920000</v>
       </c>
       <c r="B93">
-        <v>375</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
         <v>930000</v>
       </c>
       <c r="B94">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -4664,7 +4664,7 @@
         <v>940000</v>
       </c>
       <c r="B95">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -4672,7 +4672,7 @@
         <v>950000</v>
       </c>
       <c r="B96">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -4680,7 +4680,7 @@
         <v>960000</v>
       </c>
       <c r="B97">
-        <v>372</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -4688,7 +4688,7 @@
         <v>970000</v>
       </c>
       <c r="B98">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -4696,7 +4696,7 @@
         <v>980000</v>
       </c>
       <c r="B99">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4704,7 @@
         <v>990000</v>
       </c>
       <c r="B100">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -4712,7 +4712,7 @@
         <v>1000000</v>
       </c>
       <c r="B101">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -4720,7 +4720,7 @@
         <v>1010000</v>
       </c>
       <c r="B102">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -4728,7 +4728,7 @@
         <v>1020000</v>
       </c>
       <c r="B103">
-        <v>373</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4736,7 @@
         <v>1030000</v>
       </c>
       <c r="B104">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -4744,7 +4744,7 @@
         <v>1040000</v>
       </c>
       <c r="B105">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,7 +4752,7 @@
         <v>1050000</v>
       </c>
       <c r="B106">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>1060000</v>
       </c>
       <c r="B107">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4768,7 @@
         <v>1070000</v>
       </c>
       <c r="B108">
-        <v>369</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>1080000</v>
       </c>
       <c r="B109">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4784,7 @@
         <v>1090000</v>
       </c>
       <c r="B110">
-        <v>381</v>
+        <v>415</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>1100000</v>
       </c>
       <c r="B111">
-        <v>369</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
         <v>1110000</v>
       </c>
       <c r="B112">
-        <v>377</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
         <v>1120000</v>
       </c>
       <c r="B113">
-        <v>362</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>1130000</v>
       </c>
       <c r="B114">
-        <v>372</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
         <v>1140000</v>
       </c>
       <c r="B115">
-        <v>366</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>1150000</v>
       </c>
       <c r="B116">
-        <v>360</v>
+        <v>421</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>1160000</v>
       </c>
       <c r="B117">
-        <v>366</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4848,7 @@
         <v>1170000</v>
       </c>
       <c r="B118">
-        <v>373</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>1180000</v>
       </c>
       <c r="B119">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
         <v>1190000</v>
       </c>
       <c r="B120">
-        <v>374</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>1200000</v>
       </c>
       <c r="B121">
-        <v>379</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>1210000</v>
       </c>
       <c r="B122">
-        <v>377</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>1220000</v>
       </c>
       <c r="B123">
-        <v>365</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>1230000</v>
       </c>
       <c r="B124">
-        <v>369</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,7 +4904,7 @@
         <v>1240000</v>
       </c>
       <c r="B125">
-        <v>399</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4912,7 @@
         <v>1250000</v>
       </c>
       <c r="B126">
-        <v>398</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4920,7 @@
         <v>1260000</v>
       </c>
       <c r="B127">
-        <v>393</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4928,7 +4928,7 @@
         <v>1270000</v>
       </c>
       <c r="B128">
-        <v>390</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>1280000</v>
       </c>
       <c r="B129">
-        <v>394</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
         <v>1290000</v>
       </c>
       <c r="B130">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
         <v>1300000</v>
       </c>
       <c r="B131">
-        <v>385</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
         <v>1310000</v>
       </c>
       <c r="B132">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
         <v>1320000</v>
       </c>
       <c r="B133">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>1330000</v>
       </c>
       <c r="B134">
-        <v>397</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
         <v>1340000</v>
       </c>
       <c r="B135">
-        <v>407</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>1350000</v>
       </c>
       <c r="B136">
-        <v>397</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>1360000</v>
       </c>
       <c r="B137">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
         <v>1370000</v>
       </c>
       <c r="B138">
-        <v>387</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5016,7 @@
         <v>1380000</v>
       </c>
       <c r="B139">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>1390000</v>
       </c>
       <c r="B140">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5032,7 @@
         <v>1400000</v>
       </c>
       <c r="B141">
-        <v>396</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
         <v>1410000</v>
       </c>
       <c r="B142">
-        <v>395</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5048,7 @@
         <v>1420000</v>
       </c>
       <c r="B143">
-        <v>391</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>1430000</v>
       </c>
       <c r="B144">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5064,7 @@
         <v>1440000</v>
       </c>
       <c r="B145">
-        <v>399</v>
+        <v>436</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>1450000</v>
       </c>
       <c r="B146">
-        <v>396</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>1460000</v>
       </c>
       <c r="B147">
-        <v>394</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>1470000</v>
       </c>
       <c r="B148">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
         <v>1480000</v>
       </c>
       <c r="B149">
-        <v>403</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>1490000</v>
       </c>
       <c r="B150">
-        <v>394</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5112,7 @@
         <v>1500000</v>
       </c>
       <c r="B151">
-        <v>399</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -5120,7 +5120,7 @@
         <v>1510000</v>
       </c>
       <c r="B152">
-        <v>380</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5128,7 @@
         <v>1520000</v>
       </c>
       <c r="B153">
-        <v>393</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>1530000</v>
       </c>
       <c r="B154">
-        <v>390</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
         <v>1540000</v>
       </c>
       <c r="B155">
-        <v>387</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>1550000</v>
       </c>
       <c r="B156">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
         <v>1560000</v>
       </c>
       <c r="B157">
-        <v>397</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>1570000</v>
       </c>
       <c r="B158">
-        <v>383</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>1580000</v>
       </c>
       <c r="B159">
-        <v>391</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
         <v>1590000</v>
       </c>
       <c r="B160">
-        <v>409</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
         <v>1600000</v>
       </c>
       <c r="B161">
-        <v>396</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5200,7 @@
         <v>1610000</v>
       </c>
       <c r="B162">
-        <v>384</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>1620000</v>
       </c>
       <c r="B163">
-        <v>388</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5216,7 @@
         <v>1630000</v>
       </c>
       <c r="B164">
-        <v>396</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,7 +5224,7 @@
         <v>1640000</v>
       </c>
       <c r="B165">
-        <v>398</v>
+        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>1650000</v>
       </c>
       <c r="B166">
-        <v>389</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -5240,7 +5240,7 @@
         <v>1660000</v>
       </c>
       <c r="B167">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,7 +5248,7 @@
         <v>1670000</v>
       </c>
       <c r="B168">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5256,7 @@
         <v>1680000</v>
       </c>
       <c r="B169">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>1690000</v>
       </c>
       <c r="B170">
-        <v>527</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -5272,7 +5272,7 @@
         <v>1700000</v>
       </c>
       <c r="B171">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
         <v>1710000</v>
       </c>
       <c r="B172">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -5288,7 +5288,7 @@
         <v>1720000</v>
       </c>
       <c r="B173">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5296,7 @@
         <v>1730000</v>
       </c>
       <c r="B174">
-        <v>470</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>1740000</v>
       </c>
       <c r="B175">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>1750000</v>
       </c>
       <c r="B176">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>1760000</v>
       </c>
       <c r="B177">
-        <v>456</v>
+        <v>488</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>1770000</v>
       </c>
       <c r="B178">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,7 +5336,7 @@
         <v>1780000</v>
       </c>
       <c r="B179">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -5344,7 +5344,7 @@
         <v>1790000</v>
       </c>
       <c r="B180">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -5352,7 +5352,7 @@
         <v>1800000</v>
       </c>
       <c r="B181">
-        <v>452</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -5360,7 +5360,7 @@
         <v>1810000</v>
       </c>
       <c r="B182">
-        <v>468</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -5368,7 +5368,7 @@
         <v>1820000</v>
       </c>
       <c r="B183">
-        <v>454</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -5376,7 +5376,7 @@
         <v>1830000</v>
       </c>
       <c r="B184">
-        <v>459</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -5384,7 +5384,7 @@
         <v>1840000</v>
       </c>
       <c r="B185">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
         <v>1850000</v>
       </c>
       <c r="B186">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -5400,7 +5400,7 @@
         <v>1860000</v>
       </c>
       <c r="B187">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -5408,7 +5408,7 @@
         <v>1870000</v>
       </c>
       <c r="B188">
-        <v>482</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
         <v>1880000</v>
       </c>
       <c r="B189">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -5424,7 +5424,7 @@
         <v>1890000</v>
       </c>
       <c r="B190">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>1900000</v>
       </c>
       <c r="B191">
-        <v>473</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,7 +5440,7 @@
         <v>1910000</v>
       </c>
       <c r="B192">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -5448,7 +5448,7 @@
         <v>1920000</v>
       </c>
       <c r="B193">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -5456,7 +5456,7 @@
         <v>1930000</v>
       </c>
       <c r="B194">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -5464,7 +5464,7 @@
         <v>1940000</v>
       </c>
       <c r="B195">
-        <v>469</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
         <v>1950000</v>
       </c>
       <c r="B196">
-        <v>447</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
         <v>1960000</v>
       </c>
       <c r="B197">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5488,7 @@
         <v>1970000</v>
       </c>
       <c r="B198">
-        <v>466</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5496,7 @@
         <v>1980000</v>
       </c>
       <c r="B199">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>1990000</v>
       </c>
       <c r="B200">
-        <v>470</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -5512,7 +5512,7 @@
         <v>2000000</v>
       </c>
       <c r="B201">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>2010000</v>
       </c>
       <c r="B202">
-        <v>450</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -5528,7 +5528,7 @@
         <v>2020000</v>
       </c>
       <c r="B203">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -5536,7 +5536,7 @@
         <v>2030000</v>
       </c>
       <c r="B204">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -5544,7 +5544,7 @@
         <v>2040000</v>
       </c>
       <c r="B205">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
         <v>2050000</v>
       </c>
       <c r="B206">
-        <v>472</v>
+        <v>513</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>2060000</v>
       </c>
       <c r="B207">
-        <v>454</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>2070000</v>
       </c>
       <c r="B208">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
         <v>2080000</v>
       </c>
       <c r="B209">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>2090000</v>
       </c>
       <c r="B210">
-        <v>462</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>2100000</v>
       </c>
       <c r="B211">
-        <v>464</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5600,7 @@
         <v>2110000</v>
       </c>
       <c r="B212">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5608,7 @@
         <v>2120000</v>
       </c>
       <c r="B213">
-        <v>463</v>
+        <v>505</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>2130000</v>
       </c>
       <c r="B214">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
         <v>2140000</v>
       </c>
       <c r="B215">
-        <v>471</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -5632,7 +5632,7 @@
         <v>2150000</v>
       </c>
       <c r="B216">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -5640,7 +5640,7 @@
         <v>2160000</v>
       </c>
       <c r="B217">
-        <v>461</v>
+        <v>506</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>2170000</v>
       </c>
       <c r="B218">
-        <v>527</v>
+        <v>559</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -5656,7 +5656,7 @@
         <v>2180000</v>
       </c>
       <c r="B219">
-        <v>522</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -5664,7 +5664,7 @@
         <v>2190000</v>
       </c>
       <c r="B220">
-        <v>528</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>2200000</v>
       </c>
       <c r="B221">
-        <v>539</v>
+        <v>560</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>2210000</v>
       </c>
       <c r="B222">
-        <v>517</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -5688,7 +5688,7 @@
         <v>2220000</v>
       </c>
       <c r="B223">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>2230000</v>
       </c>
       <c r="B224">
-        <v>519</v>
+        <v>543</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
         <v>2240000</v>
       </c>
       <c r="B225">
-        <v>521</v>
+        <v>558</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -5712,7 +5712,7 @@
         <v>2250000</v>
       </c>
       <c r="B226">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -5720,7 +5720,7 @@
         <v>2260000</v>
       </c>
       <c r="B227">
-        <v>529</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,7 +5728,7 @@
         <v>2270000</v>
       </c>
       <c r="B228">
-        <v>527</v>
+        <v>559</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -5736,7 +5736,7 @@
         <v>2280000</v>
       </c>
       <c r="B229">
-        <v>522</v>
+        <v>551</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>2290000</v>
       </c>
       <c r="B230">
-        <v>556</v>
+        <v>605</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>2300000</v>
       </c>
       <c r="B231">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>2310000</v>
       </c>
       <c r="B232">
-        <v>523</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
         <v>2320000</v>
       </c>
       <c r="B233">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>2330000</v>
       </c>
       <c r="B234">
-        <v>533</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>2340000</v>
       </c>
       <c r="B235">
-        <v>520</v>
+        <v>583</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -5792,7 +5792,7 @@
         <v>2350000</v>
       </c>
       <c r="B236">
-        <v>522</v>
+        <v>594</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -5800,7 +5800,7 @@
         <v>2360000</v>
       </c>
       <c r="B237">
-        <v>536</v>
+        <v>576</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -5808,7 +5808,7 @@
         <v>2370000</v>
       </c>
       <c r="B238">
-        <v>525</v>
+        <v>560</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +5816,7 @@
         <v>2380000</v>
       </c>
       <c r="B239">
-        <v>506</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
         <v>2390000</v>
       </c>
       <c r="B240">
-        <v>525</v>
+        <v>570</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -5832,7 +5832,7 @@
         <v>2400000</v>
       </c>
       <c r="B241">
-        <v>526</v>
+        <v>556</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -5840,7 +5840,7 @@
         <v>2410000</v>
       </c>
       <c r="B242">
-        <v>520</v>
+        <v>557</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -5848,7 +5848,7 @@
         <v>2420000</v>
       </c>
       <c r="B243">
-        <v>518</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>2430000</v>
       </c>
       <c r="B244">
-        <v>517</v>
+        <v>563</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>2440000</v>
       </c>
       <c r="B245">
-        <v>519</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>2450000</v>
       </c>
       <c r="B246">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -5880,7 +5880,7 @@
         <v>2460000</v>
       </c>
       <c r="B247">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,7 +5888,7 @@
         <v>2470000</v>
       </c>
       <c r="B248">
-        <v>513</v>
+        <v>538</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -5896,7 +5896,7 @@
         <v>2480000</v>
       </c>
       <c r="B249">
-        <v>521</v>
+        <v>563</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,7 +5904,7 @@
         <v>2490000</v>
       </c>
       <c r="B250">
-        <v>514</v>
+        <v>564</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -5912,7 +5912,7 @@
         <v>2500000</v>
       </c>
       <c r="B251">
-        <v>528</v>
+        <v>596</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>2510000</v>
       </c>
       <c r="B252">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
         <v>2520000</v>
       </c>
       <c r="B253">
-        <v>533</v>
+        <v>588</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +5936,7 @@
         <v>2530000</v>
       </c>
       <c r="B254">
-        <v>528</v>
+        <v>620</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>2540000</v>
       </c>
       <c r="B255">
-        <v>526</v>
+        <v>601</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -5952,7 +5952,7 @@
         <v>2550000</v>
       </c>
       <c r="B256">
-        <v>515</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,7 +5960,7 @@
         <v>2560000</v>
       </c>
       <c r="B257">
-        <v>532</v>
+        <v>578</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -5968,7 +5968,7 @@
         <v>2570000</v>
       </c>
       <c r="B258">
-        <v>524</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -5976,7 +5976,7 @@
         <v>2580000</v>
       </c>
       <c r="B259">
-        <v>541</v>
+        <v>569</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -5984,7 +5984,7 @@
         <v>2590000</v>
       </c>
       <c r="B260">
-        <v>536</v>
+        <v>590</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
         <v>2600000</v>
       </c>
       <c r="B261">
-        <v>529</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -6000,7 +6000,7 @@
         <v>2610000</v>
       </c>
       <c r="B262">
-        <v>524</v>
+        <v>577</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -6008,7 +6008,7 @@
         <v>2620000</v>
       </c>
       <c r="B263">
-        <v>535</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>2630000</v>
       </c>
       <c r="B264">
-        <v>527</v>
+        <v>594</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>2640000</v>
       </c>
       <c r="B265">
-        <v>547</v>
+        <v>597</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>2650000</v>
       </c>
       <c r="B266">
-        <v>516</v>
+        <v>575</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
         <v>2660000</v>
       </c>
       <c r="B267">
-        <v>526</v>
+        <v>568</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>2670000</v>
       </c>
       <c r="B268">
-        <v>522</v>
+        <v>564</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -6056,7 +6056,7 @@
         <v>2680000</v>
       </c>
       <c r="B269">
-        <v>512</v>
+        <v>568</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
         <v>2690000</v>
       </c>
       <c r="B270">
-        <v>531</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,7 +6072,7 @@
         <v>2700000</v>
       </c>
       <c r="B271">
-        <v>531</v>
+        <v>572</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -6080,7 +6080,7 @@
         <v>2710000</v>
       </c>
       <c r="B272">
-        <v>523</v>
+        <v>564</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -6088,7 +6088,7 @@
         <v>2720000</v>
       </c>
       <c r="B273">
-        <v>533</v>
+        <v>583</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -6096,7 +6096,7 @@
         <v>2730000</v>
       </c>
       <c r="B274">
-        <v>538</v>
+        <v>594</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
         <v>2740000</v>
       </c>
       <c r="B275">
-        <v>517</v>
+        <v>606</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>2750000</v>
       </c>
       <c r="B276">
-        <v>522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>2760000</v>
       </c>
       <c r="B277">
-        <v>531</v>
+        <v>584</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -6128,7 +6128,7 @@
         <v>2770000</v>
       </c>
       <c r="B278">
-        <v>543</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -6136,7 +6136,7 @@
         <v>2780000</v>
       </c>
       <c r="B279">
-        <v>525</v>
+        <v>578</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -6144,7 +6144,7 @@
         <v>2790000</v>
       </c>
       <c r="B280">
-        <v>520</v>
+        <v>557</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6152,7 @@
         <v>2800000</v>
       </c>
       <c r="B281">
-        <v>511</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
         <v>2810000</v>
       </c>
       <c r="B282">
-        <v>525</v>
+        <v>606</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -6168,7 +6168,7 @@
         <v>2820000</v>
       </c>
       <c r="B283">
-        <v>553</v>
+        <v>588</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>2830000</v>
       </c>
       <c r="B284">
-        <v>524</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -6184,7 +6184,7 @@
         <v>2840000</v>
       </c>
       <c r="B285">
-        <v>527</v>
+        <v>592</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -6192,7 +6192,7 @@
         <v>2850000</v>
       </c>
       <c r="B286">
-        <v>523</v>
+        <v>565</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
         <v>2860000</v>
       </c>
       <c r="B287">
-        <v>536</v>
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -6208,7 +6208,7 @@
         <v>2870000</v>
       </c>
       <c r="B288">
-        <v>529</v>
+        <v>580</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -6216,7 +6216,7 @@
         <v>2880000</v>
       </c>
       <c r="B289">
-        <v>534</v>
+        <v>598</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>2890000</v>
       </c>
       <c r="B290">
-        <v>533</v>
+        <v>572</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -6232,7 +6232,7 @@
         <v>2900000</v>
       </c>
       <c r="B291">
-        <v>516</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -6240,7 +6240,7 @@
         <v>2910000</v>
       </c>
       <c r="B292">
-        <v>533</v>
+        <v>562</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>2920000</v>
       </c>
       <c r="B293">
-        <v>525</v>
+        <v>572</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -6256,7 +6256,7 @@
         <v>2930000</v>
       </c>
       <c r="B294">
-        <v>548</v>
+        <v>587</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -6264,7 +6264,7 @@
         <v>2940000</v>
       </c>
       <c r="B295">
-        <v>539</v>
+        <v>574</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -6272,7 +6272,7 @@
         <v>2950000</v>
       </c>
       <c r="B296">
-        <v>530</v>
+        <v>570</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -6280,7 +6280,7 @@
         <v>2960000</v>
       </c>
       <c r="B297">
-        <v>503</v>
+        <v>590</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6288,7 @@
         <v>2970000</v>
       </c>
       <c r="B298">
-        <v>526</v>
+        <v>586</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>2980000</v>
       </c>
       <c r="B299">
-        <v>531</v>
+        <v>582</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6304,7 @@
         <v>2990000</v>
       </c>
       <c r="B300">
-        <v>512</v>
+        <v>592</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>3000000</v>
       </c>
       <c r="B301">
-        <v>530</v>
+        <v>578</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -6320,7 +6320,7 @@
         <v>3010000</v>
       </c>
       <c r="B302">
-        <v>523</v>
+        <v>570</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
         <v>3020000</v>
       </c>
       <c r="B303">
-        <v>534</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>3030000</v>
       </c>
       <c r="B304">
-        <v>526</v>
+        <v>592</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,7 +6344,7 @@
         <v>3040000</v>
       </c>
       <c r="B305">
-        <v>523</v>
+        <v>568</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>3050000</v>
       </c>
       <c r="B306">
-        <v>524</v>
+        <v>622</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6360,7 @@
         <v>3060000</v>
       </c>
       <c r="B307">
-        <v>518</v>
+        <v>590</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
         <v>3070000</v>
       </c>
       <c r="B308">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -6376,7 +6376,7 @@
         <v>3080000</v>
       </c>
       <c r="B309">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>3090000</v>
       </c>
       <c r="B310">
-        <v>530</v>
+        <v>576</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -6392,7 +6392,7 @@
         <v>3100000</v>
       </c>
       <c r="B311">
-        <v>533</v>
+        <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>3110000</v>
       </c>
       <c r="B312">
-        <v>527</v>
+        <v>588</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -6408,7 +6408,7 @@
         <v>3120000</v>
       </c>
       <c r="B313">
-        <v>555</v>
+        <v>574</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -6416,7 +6416,7 @@
         <v>3130000</v>
       </c>
       <c r="B314">
-        <v>541</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -6424,7 +6424,7 @@
         <v>3140000</v>
       </c>
       <c r="B315">
-        <v>531</v>
+        <v>583</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
         <v>3150000</v>
       </c>
       <c r="B316">
-        <v>530</v>
+        <v>594</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -6440,7 +6440,7 @@
         <v>3160000</v>
       </c>
       <c r="B317">
-        <v>521</v>
+        <v>592</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -6448,7 +6448,7 @@
         <v>3170000</v>
       </c>
       <c r="B318">
-        <v>535</v>
+        <v>591</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>3180000</v>
       </c>
       <c r="B319">
-        <v>516</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>3190000</v>
       </c>
       <c r="B320">
-        <v>509</v>
+        <v>586</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>3200000</v>
       </c>
       <c r="B321">
-        <v>530</v>
+        <v>565</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
         <v>3210000</v>
       </c>
       <c r="B322">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -6488,7 +6488,7 @@
         <v>3220000</v>
       </c>
       <c r="B323">
-        <v>519</v>
+        <v>563</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -6496,7 +6496,7 @@
         <v>3230000</v>
       </c>
       <c r="B324">
-        <v>525</v>
+        <v>588</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -6504,7 +6504,7 @@
         <v>3240000</v>
       </c>
       <c r="B325">
-        <v>547</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>3250000</v>
       </c>
       <c r="B326">
-        <v>518</v>
+        <v>568</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -6520,7 +6520,7 @@
         <v>3260000</v>
       </c>
       <c r="B327">
-        <v>518</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -6528,7 +6528,7 @@
         <v>3270000</v>
       </c>
       <c r="B328">
-        <v>519</v>
+        <v>583</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -6536,7 +6536,7 @@
         <v>3280000</v>
       </c>
       <c r="B329">
-        <v>526</v>
+        <v>574</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -6544,7 +6544,7 @@
         <v>3290000</v>
       </c>
       <c r="B330">
-        <v>537</v>
+        <v>575</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
         <v>3300000</v>
       </c>
       <c r="B331">
-        <v>521</v>
+        <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>3310000</v>
       </c>
       <c r="B332">
-        <v>523</v>
+        <v>583</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
         <v>3320000</v>
       </c>
       <c r="B333">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
         <v>3330000</v>
       </c>
       <c r="B334">
-        <v>524</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
